--- a/medicine/Psychotrope/Hite_Brewery_Company/Hite_Brewery_Company.xlsx
+++ b/medicine/Psychotrope/Hite_Brewery_Company/Hite_Brewery_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Hite Brewery Company Limited (hangul:하이트맥주) est une entreprise coréenne brassicole et de spiritueux, située dans le quartier Yeongdeungpo-gu de Séoul. Ses principales productions sont la bière, l'alcool de riz et l'eau minérale. L'entreprise a été créée en 1933 sous le nom Brasserie Chosun. Ses parts de marché en Corée sont comprises entre 30 % (1992) et 55 % (2002), qu'elle partage avec ses deux concurrents locaux, OB et Cass.
@@ -514,11 +526,13 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie produit quatre marques de bières
 La bière Hite (하이트)
-Il s'agit de la bière la plus vendue en Corée. De style lager dorée, elle est brassée à base de malt d'orge et de riz comme la Budweiser dont elle se rapproche par le goût et la couleur. Les deux autres bières majoritaires en Corée, la OB et la Cass sont elles aussi très proches, au point que les coréens parlent de bières interchangeables. Degré d'alcool 4,5°. La fabrication est basée sur un processus à trois étapes pour contrôler la température de fermentation. La hite accompagne parfaitement les fruits de mer et les poissons épicés[1].
+Il s'agit de la bière la plus vendue en Corée. De style lager dorée, elle est brassée à base de malt d'orge et de riz comme la Budweiser dont elle se rapproche par le goût et la couleur. Les deux autres bières majoritaires en Corée, la OB et la Cass sont elles aussi très proches, au point que les coréens parlent de bières interchangeables. Degré d'alcool 4,5°. La fabrication est basée sur un processus à trois étapes pour contrôler la température de fermentation. La hite accompagne parfaitement les fruits de mer et les poissons épicés.
 Hite se diversifie sur des versions light (1982) et sans alcool (1984).
 La bière Prime Max (프라임 맥스)
 Un peu plus chère et raffinée que la Hite, elle se place dans le top 5 des bières coréennes. La saveur blé se perçoit mieux. Degré d'alcool 4,5°.
@@ -554,7 +568,9 @@
           <t>Autres produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Seok Su &amp; Puriss Water (석수와 퓨리스) Eau purifiée (anciennement produit de Jinro)
 Hite d dry finish, à base de levure déshydratée. Degré d'alcool 5°.
